--- a/documentation/2.Поиск_максимум_Солярик_профильнагрузкиWebTours.xlsx
+++ b/documentation/2.Поиск_максимум_Солярик_профильнагрузкиWebTours.xlsx
@@ -1859,7 +1859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3659,7 +3659,7 @@
         <v>-6.8493150684931781E-3</v>
       </c>
       <c r="K45" s="28">
-        <f t="shared" ref="K35:K45" si="29">ROUND(H45/3,0)</f>
+        <f t="shared" ref="K45" si="29">ROUND(H45/3,0)</f>
         <v>0</v>
       </c>
       <c r="L45" s="28">

--- a/documentation/2.Поиск_максимум_Солярик_профильнагрузкиWebTours.xlsx
+++ b/documentation/2.Поиск_максимум_Солярик_профильнагрузкиWebTours.xlsx
@@ -1859,7 +1859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
